--- a/FinalExcel.xlsx
+++ b/FinalExcel.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prati\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kinjal\Desktop\Leetcode Guide\leetcode-practice-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3B204-BBC1-4F57-8732-01E41954F85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0608208-0D9C-4AB4-95B5-FF4DB65F5455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="14496" xr2:uid="{7A89BC15-BF3A-498E-A9FC-7A671AAE2BD5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7A89BC15-BF3A-498E-A9FC-7A671AAE2BD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$47</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -484,7 +487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,8 +518,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +552,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -555,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -612,12 +629,42 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -636,9 +683,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -676,7 +723,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -782,7 +829,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -924,7 +971,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -934,22 +981,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4403FC8A-87C5-4890-9319-C53BE0D1944B}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="63" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="98.88671875" customWidth="1"/>
-    <col min="8" max="8" width="69.88671875" customWidth="1"/>
-    <col min="9" max="9" width="53.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="98.85546875" customWidth="1"/>
+    <col min="8" max="8" width="69.85546875" customWidth="1"/>
+    <col min="9" max="9" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,189 +1025,190 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>929</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="D2" s="7" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>914</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7">
-        <v>4.0448641814695598</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="13">
+        <v>0.72823899999999997</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>482</v>
+        <v>686</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3" s="9">
-        <v>0.43099999999999999</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="7">
-        <v>3.6432792644601801</v>
+        <v>0.99970486060963504</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>55</v>
+      <c r="G3" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="D4" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>246</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.45</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7">
-        <v>3.3919412023306199</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E4" s="24">
+        <v>1.13701614265234</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>844</v>
+        <v>475</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" s="9">
-        <v>0.46400000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="7">
-        <v>3.0249115810191798</v>
+        <v>1.1492067361245999</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>299</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="D6" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>346</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7">
-        <v>2.5375177850737098</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E6" s="24">
+        <v>1.1495787322601301</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>359</v>
+        <v>849</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" s="9">
-        <v>0.70799999999999996</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="7">
-        <v>2.3184153762193702</v>
+        <v>1.3345334179948101</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>1170</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>734</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="7">
-        <v>1.7114332746638801</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E8" s="24">
+        <v>1.4835233134988299</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>205</v>
       </c>
@@ -1186,371 +1234,379 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>734</v>
+        <v>1170</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9">
-        <v>0.42099999999999999</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="7">
-        <v>1.4835233134988299</v>
+        <v>1.7114332746638801</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>849</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="D11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>359</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="7">
-        <v>1.3345334179948101</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E11" s="24">
+        <v>2.3184153762193702</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9">
-        <v>0.70899999999999996</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="7">
-        <v>1.1495787322601301</v>
+        <v>2.5375177850737098</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>475</v>
+        <v>844</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C13" s="9">
-        <v>0.33100000000000002</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="7">
-        <v>1.1492067361245999</v>
+        <v>3.0249115810191798</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C14" s="9">
-        <v>0.45</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="7">
-        <v>1.13701614265234</v>
+        <v>3.3919412023306199</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>686</v>
+        <v>482</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C15" s="9">
-        <v>0.32300000000000001</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="7">
-        <v>0.99970486060963504</v>
+        <v>3.6432792644601801</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>67</v>
+      <c r="G15" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>914</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D16" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>929</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="13">
-        <v>0.72823899999999997</v>
-      </c>
-      <c r="F16" s="15" t="s">
+      <c r="E16" s="7">
+        <v>4.0448641814695598</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
-        <v>904</v>
+        <v>1110</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C17" s="22">
-        <v>0.42499999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="21">
-        <v>3.9444679522172099</v>
+        <v>2.0191253634913302</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
-        <v>1007</v>
+        <v>659</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C18" s="22">
-        <v>0.5</v>
+        <v>0.437</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="21">
-        <v>3.8440717229648702</v>
+        <v>2.1845884916182601</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
-        <v>681</v>
+        <v>777</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C19" s="22">
-        <v>0.45</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="21">
-        <v>3.4424868059554901</v>
+        <v>2.1854101194026399</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
-        <v>399</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="22">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="D20" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>1055</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="29">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="21">
-        <v>3.3762783074178602</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E20" s="28">
+        <v>2.34480965133119</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
-        <v>159</v>
+        <v>939</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C21" s="22">
-        <v>0.49399999999999999</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="21">
-        <v>3.22836576875032</v>
+        <v>2.4798105966919599</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
-        <v>222</v>
+        <v>833</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C22" s="22">
-        <v>0.46800000000000003</v>
+        <v>0.504</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="21">
-        <v>3.1625743234775201</v>
+        <v>2.5236194176142202</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
-        <v>947</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="22">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="D23" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>1057</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="29">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="D23" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="21">
-        <v>3.11956257677847</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="28">
+        <v>2.7150993767802101</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>809</v>
       </c>
@@ -1575,580 +1631,593 @@
       <c r="H24" s="21" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
-        <v>1057</v>
+        <v>947</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="22">
-        <v>0.57699999999999996</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="21">
-        <v>2.7150993767802101</v>
+        <v>3.11956257677847</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
-        <v>833</v>
+        <v>222</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26" s="22">
-        <v>0.504</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="21">
-        <v>2.5236194176142202</v>
+        <v>3.1625743234775201</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
-        <v>939</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="22">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="D27" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>159</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="29">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="D27" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="21">
-        <v>2.4798105966919599</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E27" s="28">
+        <v>3.22836576875032</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
-        <v>1055</v>
+        <v>399</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C28" s="22">
-        <v>0.56899999999999995</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="21">
-        <v>2.34480965133119</v>
+        <v>3.3762783074178602</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
-        <v>777</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="22">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="D29" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>681</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="29">
+        <v>0.45</v>
+      </c>
+      <c r="D29" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="21">
-        <v>2.1854101194026399</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E29" s="28">
+        <v>3.4424868059554901</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
-        <v>659</v>
+        <v>1007</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C30" s="22">
-        <v>0.437</v>
+        <v>0.5</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="21">
-        <v>2.1845884916182601</v>
+        <v>3.8440717229648702</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
-        <v>1110</v>
+        <v>904</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C31" s="22">
-        <v>0.67</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E31" s="21">
-        <v>2.0191253634913302</v>
+        <v>3.9444679522172099</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
-        <v>843</v>
+        <v>803</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C32" s="18">
-        <v>0.46100000000000002</v>
+        <v>0.308</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="19">
-        <v>3.7436754937125198</v>
+        <v>2.1118142976405299</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>7</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
-        <v>975</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="18">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="D33" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>308</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="26">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D33" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="19">
-        <v>3.5428830352078302</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
-        <v>410</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="18">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="D34" s="16" t="s">
+      <c r="E33" s="28">
+        <v>2.2562915561542098</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>1088</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="26">
+        <v>0.44</v>
+      </c>
+      <c r="D34" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="19">
-        <v>3.3287619980026699</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
-        <v>857</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="18">
-        <v>0.496</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="E34" s="28">
+        <v>2.2923818770475699</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>727</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D35" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="19">
-        <v>3.0622648147277798</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E35" s="28">
+        <v>2.3522468452462899</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
-        <v>642</v>
+        <v>736</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C36" s="18">
-        <v>0.44700000000000001</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="19">
-        <v>2.8599066972328702</v>
+        <v>2.40178527548799</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
-        <v>683</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="18">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="D37" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <v>1153</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="26">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D37" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="19">
-        <v>2.7975691241418401</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E37" s="28">
+        <v>2.4182636672384601</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
-        <v>248</v>
+        <v>753</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C38" s="18">
-        <v>0.39600000000000002</v>
+        <v>0.505</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="19">
+        <v>2.4956223313310999</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>489</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="26">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="28">
+        <v>2.63017175935784</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>248</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="26">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="28">
         <v>2.7272391635558599</v>
       </c>
-      <c r="F38" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="19" t="s">
+      <c r="F40" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H40" s="28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
-        <v>489</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="18">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="D39" s="16" t="s">
+    <row r="41" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
+        <v>683</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="26">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D41" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="19">
-        <v>2.63017175935784</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
-        <v>753</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="18">
-        <v>0.505</v>
-      </c>
-      <c r="D40" s="16" t="s">
+      <c r="E41" s="28">
+        <v>2.7975691241418401</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>642</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="26">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D42" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="19">
-        <v>2.4956223313310999</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
-        <v>1153</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="18">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="19">
-        <v>2.4182636672384601</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
-        <v>736</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="18">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="19">
-        <v>2.40178527548799</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E42" s="28">
+        <v>2.8599066972328702</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
-        <v>727</v>
+        <v>857</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C43" s="18">
-        <v>0.41799999999999998</v>
+        <v>0.496</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="19">
-        <v>2.3522468452462899</v>
+        <v>3.0622648147277798</v>
       </c>
       <c r="F43" s="20" t="s">
         <v>7</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
-        <v>1088</v>
+        <v>410</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C44" s="18">
-        <v>0.44</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E44" s="19">
-        <v>2.2923818770475699</v>
+        <v>3.3287619980026699</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>7</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
-        <v>308</v>
+        <v>975</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C45" s="18">
-        <v>0.35599999999999998</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="19">
-        <v>2.2562915561542098</v>
+        <v>3.5428830352078302</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>7</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C46" s="18">
-        <v>0.308</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="19">
-        <v>2.1118142976405299</v>
+        <v>3.7436754937125198</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>7</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="6"/>
       <c r="C47" s="3"/>
@@ -2156,52 +2225,60 @@
       <c r="F47" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H47" xr:uid="{4403FC8A-87C5-4890-9319-C53BE0D1944B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
+      <sortCondition ref="E1:E47"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
+    <sortCondition ref="D2:D46" customList="Easy,Medium,Hard"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="F46" r:id="rId1" display="https://leetcode.com/problems/bricks-falling-when-hit" xr:uid="{CF3542FD-3DB4-4B14-8300-797F3195FE50}"/>
-    <hyperlink ref="F45" r:id="rId2" display="https://leetcode.com/problems/range-sum-query-2d-mutable" xr:uid="{94444BAA-5EB4-46D7-9F33-B4AE6FD0F060}"/>
-    <hyperlink ref="F30" r:id="rId3" display="https://leetcode.com/problems/split-array-into-consecutive-subsequences" xr:uid="{FEC57A24-47BE-4CA7-AC85-98A904554D6D}"/>
-    <hyperlink ref="F31" r:id="rId4" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{E0112511-D79A-46A3-9F92-0A20DBE095C0}"/>
-    <hyperlink ref="F15" r:id="rId5" display="https://leetcode.com/problems/repeated-string-match" xr:uid="{B5018E6E-C539-4151-A927-0081587834A7}"/>
-    <hyperlink ref="F14" r:id="rId6" display="https://leetcode.com/problems/strobogrammatic-number" xr:uid="{3AAFC2C6-AF27-4B04-B49D-BD8B1AD618AB}"/>
-    <hyperlink ref="F13" r:id="rId7" display="https://leetcode.com/problems/heaters" xr:uid="{0660CCD7-E2D2-4312-A34B-CE102A0723C4}"/>
-    <hyperlink ref="F12" r:id="rId8" display="https://leetcode.com/problems/moving-average-from-data-stream" xr:uid="{2980A56A-6E4F-4F76-901C-6AB8A4428DD0}"/>
-    <hyperlink ref="F11" r:id="rId9" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{65F35CD7-A672-4092-97B7-2476B7A222DD}"/>
-    <hyperlink ref="F10" r:id="rId10" display="https://leetcode.com/problems/sentence-similarity" xr:uid="{CFDFD3CA-60FB-4148-A37B-5D571303F1BB}"/>
+    <hyperlink ref="F32" r:id="rId1" display="https://leetcode.com/problems/bricks-falling-when-hit" xr:uid="{CF3542FD-3DB4-4B14-8300-797F3195FE50}"/>
+    <hyperlink ref="F33" r:id="rId2" display="https://leetcode.com/problems/range-sum-query-2d-mutable" xr:uid="{94444BAA-5EB4-46D7-9F33-B4AE6FD0F060}"/>
+    <hyperlink ref="F18" r:id="rId3" display="https://leetcode.com/problems/split-array-into-consecutive-subsequences" xr:uid="{FEC57A24-47BE-4CA7-AC85-98A904554D6D}"/>
+    <hyperlink ref="F17" r:id="rId4" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{E0112511-D79A-46A3-9F92-0A20DBE095C0}"/>
+    <hyperlink ref="F3" r:id="rId5" display="https://leetcode.com/problems/repeated-string-match" xr:uid="{B5018E6E-C539-4151-A927-0081587834A7}"/>
+    <hyperlink ref="F4" r:id="rId6" display="https://leetcode.com/problems/strobogrammatic-number" xr:uid="{3AAFC2C6-AF27-4B04-B49D-BD8B1AD618AB}"/>
+    <hyperlink ref="F5" r:id="rId7" display="https://leetcode.com/problems/heaters" xr:uid="{0660CCD7-E2D2-4312-A34B-CE102A0723C4}"/>
+    <hyperlink ref="F6" r:id="rId8" display="https://leetcode.com/problems/moving-average-from-data-stream" xr:uid="{2980A56A-6E4F-4F76-901C-6AB8A4428DD0}"/>
+    <hyperlink ref="F7" r:id="rId9" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{65F35CD7-A672-4092-97B7-2476B7A222DD}"/>
+    <hyperlink ref="F8" r:id="rId10" display="https://leetcode.com/problems/sentence-similarity" xr:uid="{CFDFD3CA-60FB-4148-A37B-5D571303F1BB}"/>
     <hyperlink ref="F9" r:id="rId11" display="https://leetcode.com/problems/isomorphic-strings" xr:uid="{F9128291-CC22-4CFA-BCB5-36F429FE2442}"/>
-    <hyperlink ref="F8" r:id="rId12" display="https://leetcode.com/problems/compare-strings-by-frequency-of-the-smallest-character" xr:uid="{F746327B-571A-4B58-B834-4B98FBE95038}"/>
-    <hyperlink ref="F7" r:id="rId13" display="https://leetcode.com/problems/logger-rate-limiter" xr:uid="{ECA3CE33-8483-4437-B7D3-3530053898EE}"/>
-    <hyperlink ref="F6" r:id="rId14" display="https://leetcode.com/problems/bulls-and-cows" xr:uid="{AD3B3EEF-10E4-4F43-9C70-881622F459A2}"/>
-    <hyperlink ref="F5" r:id="rId15" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{A5F3FE15-3B2A-4F8D-8426-D978A55D9E0F}"/>
-    <hyperlink ref="F4" r:id="rId16" display="https://leetcode.com/problems/two-sum" xr:uid="{375D56B7-8655-478A-B9CF-B8C99A2EF7A0}"/>
-    <hyperlink ref="F3" r:id="rId17" display="https://leetcode.com/problems/license-key-formatting" xr:uid="{F547E01C-1A8C-44B1-AE09-33F3E08ABB07}"/>
-    <hyperlink ref="F2" r:id="rId18" display="https://leetcode.com/problems/unique-email-addresses" xr:uid="{D3770A4B-ACD7-4F86-B336-554F37E36ADC}"/>
-    <hyperlink ref="F32" r:id="rId19" display="https://leetcode.com/problems/guess-the-word" xr:uid="{5ECD15DC-2068-46C4-B6B6-CC061A056786}"/>
-    <hyperlink ref="F33" r:id="rId20" display="https://leetcode.com/problems/odd-even-jump" xr:uid="{A9628168-2BC4-4DD6-9EA8-7F83DD92E731}"/>
-    <hyperlink ref="F34" r:id="rId21" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{D30AB785-CDDD-4310-8D13-4CBDC567006F}"/>
-    <hyperlink ref="F35" r:id="rId22" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{24929CD9-AA1D-4483-A5FD-58896525E12E}"/>
-    <hyperlink ref="F36" r:id="rId23" display="https://leetcode.com/problems/design-search-autocomplete-system" xr:uid="{D0EC05BA-234C-44BC-9F65-216DBE844086}"/>
-    <hyperlink ref="F37" r:id="rId24" display="https://leetcode.com/problems/k-empty-slots" xr:uid="{E65120A1-F060-46B2-B7B1-689C18FBF05A}"/>
-    <hyperlink ref="F38" r:id="rId25" display="https://leetcode.com/problems/strobogrammatic-number-iii" xr:uid="{0DEDA62F-F012-4DD7-BF93-043F632882F9}"/>
+    <hyperlink ref="F10" r:id="rId12" display="https://leetcode.com/problems/compare-strings-by-frequency-of-the-smallest-character" xr:uid="{F746327B-571A-4B58-B834-4B98FBE95038}"/>
+    <hyperlink ref="F11" r:id="rId13" display="https://leetcode.com/problems/logger-rate-limiter" xr:uid="{ECA3CE33-8483-4437-B7D3-3530053898EE}"/>
+    <hyperlink ref="F12" r:id="rId14" display="https://leetcode.com/problems/bulls-and-cows" xr:uid="{AD3B3EEF-10E4-4F43-9C70-881622F459A2}"/>
+    <hyperlink ref="F13" r:id="rId15" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{A5F3FE15-3B2A-4F8D-8426-D978A55D9E0F}"/>
+    <hyperlink ref="F14" r:id="rId16" display="https://leetcode.com/problems/two-sum" xr:uid="{375D56B7-8655-478A-B9CF-B8C99A2EF7A0}"/>
+    <hyperlink ref="F15" r:id="rId17" display="https://leetcode.com/problems/license-key-formatting" xr:uid="{F547E01C-1A8C-44B1-AE09-33F3E08ABB07}"/>
+    <hyperlink ref="F16" r:id="rId18" display="https://leetcode.com/problems/unique-email-addresses" xr:uid="{D3770A4B-ACD7-4F86-B336-554F37E36ADC}"/>
+    <hyperlink ref="F46" r:id="rId19" display="https://leetcode.com/problems/guess-the-word" xr:uid="{5ECD15DC-2068-46C4-B6B6-CC061A056786}"/>
+    <hyperlink ref="F45" r:id="rId20" display="https://leetcode.com/problems/odd-even-jump" xr:uid="{A9628168-2BC4-4DD6-9EA8-7F83DD92E731}"/>
+    <hyperlink ref="F44" r:id="rId21" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{D30AB785-CDDD-4310-8D13-4CBDC567006F}"/>
+    <hyperlink ref="F43" r:id="rId22" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{24929CD9-AA1D-4483-A5FD-58896525E12E}"/>
+    <hyperlink ref="F42" r:id="rId23" display="https://leetcode.com/problems/design-search-autocomplete-system" xr:uid="{D0EC05BA-234C-44BC-9F65-216DBE844086}"/>
+    <hyperlink ref="F41" r:id="rId24" display="https://leetcode.com/problems/k-empty-slots" xr:uid="{E65120A1-F060-46B2-B7B1-689C18FBF05A}"/>
+    <hyperlink ref="F40" r:id="rId25" display="https://leetcode.com/problems/strobogrammatic-number-iii" xr:uid="{0DEDA62F-F012-4DD7-BF93-043F632882F9}"/>
     <hyperlink ref="F39" r:id="rId26" display="https://leetcode.com/problems/robot-room-cleaner" xr:uid="{8EF47C5D-5CD1-4C41-9549-87750854C805}"/>
-    <hyperlink ref="F40" r:id="rId27" display="https://leetcode.com/problems/cracking-the-safe" xr:uid="{4688AE43-365D-489D-8AA2-22879D0225E7}"/>
-    <hyperlink ref="F41" r:id="rId28" display="https://leetcode.com/problems/string-transforms-into-another-string" xr:uid="{BED1ACF9-0B6F-4384-975E-A43EC36D2718}"/>
-    <hyperlink ref="F42" r:id="rId29" display="https://leetcode.com/problems/parse-lisp-expression" xr:uid="{DDC70AE8-9F9B-453C-BAA7-BF151C919210}"/>
-    <hyperlink ref="F43" r:id="rId30" display="https://leetcode.com/problems/minimum-window-subsequence" xr:uid="{2AD96F92-2855-4653-938C-66D188293D97}"/>
-    <hyperlink ref="F44" r:id="rId31" display="https://leetcode.com/problems/confusing-number-ii" xr:uid="{0B8285D8-180B-4316-B30A-F954073BA0BF}"/>
-    <hyperlink ref="F28" r:id="rId32" display="https://leetcode.com/problems/shortest-way-to-form-string" xr:uid="{1DDA1A29-84D3-49E5-BB60-920B90F6499C}"/>
-    <hyperlink ref="F27" r:id="rId33" display="https://leetcode.com/problems/minimum-area-rectangle" xr:uid="{17F92E46-062E-4F2E-AF56-DC9CF70FD0FF}"/>
-    <hyperlink ref="F26" r:id="rId34" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{76ABA82C-F83E-45A1-81D2-7F3DF944430D}"/>
-    <hyperlink ref="F25" r:id="rId35" display="https://leetcode.com/problems/campus-bikes" xr:uid="{E1879AAF-1E94-47C3-BDA9-E254C6509E73}"/>
+    <hyperlink ref="F38" r:id="rId27" display="https://leetcode.com/problems/cracking-the-safe" xr:uid="{4688AE43-365D-489D-8AA2-22879D0225E7}"/>
+    <hyperlink ref="F37" r:id="rId28" display="https://leetcode.com/problems/string-transforms-into-another-string" xr:uid="{BED1ACF9-0B6F-4384-975E-A43EC36D2718}"/>
+    <hyperlink ref="F36" r:id="rId29" display="https://leetcode.com/problems/parse-lisp-expression" xr:uid="{DDC70AE8-9F9B-453C-BAA7-BF151C919210}"/>
+    <hyperlink ref="F35" r:id="rId30" display="https://leetcode.com/problems/minimum-window-subsequence" xr:uid="{2AD96F92-2855-4653-938C-66D188293D97}"/>
+    <hyperlink ref="F34" r:id="rId31" display="https://leetcode.com/problems/confusing-number-ii" xr:uid="{0B8285D8-180B-4316-B30A-F954073BA0BF}"/>
+    <hyperlink ref="F20" r:id="rId32" display="https://leetcode.com/problems/shortest-way-to-form-string" xr:uid="{1DDA1A29-84D3-49E5-BB60-920B90F6499C}"/>
+    <hyperlink ref="F21" r:id="rId33" display="https://leetcode.com/problems/minimum-area-rectangle" xr:uid="{17F92E46-062E-4F2E-AF56-DC9CF70FD0FF}"/>
+    <hyperlink ref="F22" r:id="rId34" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{76ABA82C-F83E-45A1-81D2-7F3DF944430D}"/>
+    <hyperlink ref="F23" r:id="rId35" display="https://leetcode.com/problems/campus-bikes" xr:uid="{E1879AAF-1E94-47C3-BDA9-E254C6509E73}"/>
     <hyperlink ref="F24" r:id="rId36" display="https://leetcode.com/problems/expressive-words" xr:uid="{0632E45C-C906-4577-B03B-759B2642CFBF}"/>
-    <hyperlink ref="F23" r:id="rId37" display="https://leetcode.com/problems/most-stones-removed-with-same-row-or-column" xr:uid="{AF3FA96F-F545-4A6A-84FD-43439DC8E54F}"/>
-    <hyperlink ref="F22" r:id="rId38" display="https://leetcode.com/problems/count-complete-tree-nodes" xr:uid="{06D948D7-5C09-430C-9EFA-2C5854229E6B}"/>
-    <hyperlink ref="F21" r:id="rId39" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters" xr:uid="{8426DA3B-39BA-4022-8967-1864A7DF8C5D}"/>
-    <hyperlink ref="F20" r:id="rId40" display="https://leetcode.com/problems/evaluate-division" xr:uid="{3306D47F-FB1C-4699-A0BF-BB5A0A178C5C}"/>
-    <hyperlink ref="F19" r:id="rId41" display="https://leetcode.com/problems/next-closest-time" xr:uid="{A796DB5C-7873-4B31-B1EC-0DD0C38766D9}"/>
-    <hyperlink ref="F18" r:id="rId42" display="https://leetcode.com/problems/minimum-domino-rotations-for-equal-row" xr:uid="{A85F4995-67C4-45A9-AA15-DCB944B3835A}"/>
-    <hyperlink ref="F17" r:id="rId43" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{F4AA7889-54E6-4623-8A67-9A64C0CB1291}"/>
-    <hyperlink ref="F29" r:id="rId44" display="https://leetcode.com/problems/swap-adjacent-in-lr-string" xr:uid="{2820DA4A-025D-4233-98D5-AD9563CA332E}"/>
-    <hyperlink ref="F16" r:id="rId45" xr:uid="{041E05DD-203D-415A-BF65-A4E7A102C3BC}"/>
+    <hyperlink ref="F25" r:id="rId37" display="https://leetcode.com/problems/most-stones-removed-with-same-row-or-column" xr:uid="{AF3FA96F-F545-4A6A-84FD-43439DC8E54F}"/>
+    <hyperlink ref="F26" r:id="rId38" display="https://leetcode.com/problems/count-complete-tree-nodes" xr:uid="{06D948D7-5C09-430C-9EFA-2C5854229E6B}"/>
+    <hyperlink ref="F27" r:id="rId39" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters" xr:uid="{8426DA3B-39BA-4022-8967-1864A7DF8C5D}"/>
+    <hyperlink ref="F28" r:id="rId40" display="https://leetcode.com/problems/evaluate-division" xr:uid="{3306D47F-FB1C-4699-A0BF-BB5A0A178C5C}"/>
+    <hyperlink ref="F29" r:id="rId41" display="https://leetcode.com/problems/next-closest-time" xr:uid="{A796DB5C-7873-4B31-B1EC-0DD0C38766D9}"/>
+    <hyperlink ref="F30" r:id="rId42" display="https://leetcode.com/problems/minimum-domino-rotations-for-equal-row" xr:uid="{A85F4995-67C4-45A9-AA15-DCB944B3835A}"/>
+    <hyperlink ref="F31" r:id="rId43" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{F4AA7889-54E6-4623-8A67-9A64C0CB1291}"/>
+    <hyperlink ref="F19" r:id="rId44" display="https://leetcode.com/problems/swap-adjacent-in-lr-string" xr:uid="{2820DA4A-025D-4233-98D5-AD9563CA332E}"/>
+    <hyperlink ref="F2" r:id="rId45" xr:uid="{041E05DD-203D-415A-BF65-A4E7A102C3BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId46"/>
